--- a/Excel Workbooks/100/100Pi8.xlsx
+++ b/Excel Workbooks/100/100Pi8.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403B902-0DF8-40CF-9C7E-EB132836E875}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,12 +441,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.8496302250145069</v>
+        <v>0.84963022501450691</v>
       </c>
       <c r="B2">
-        <v>0.5838657525853679</v>
+        <v>0.58386575258536788</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -400,26 +455,26 @@
         <v>0.2584073464102068</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.3238479778827822</v>
+        <v>0.32384797788278219</v>
       </c>
       <c r="B3">
-        <v>0.7059554112843455</v>
+        <v>0.70595541128434547</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>8.22536130248883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>8.2253613024888299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.8397205369527055</v>
+        <v>0.83972053695270554</v>
       </c>
       <c r="B4">
-        <v>0.556286130486544</v>
+        <v>0.55628613048654396</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,271 +483,271 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.2716373069599108</v>
+        <v>0.27163730695991078</v>
       </c>
       <c r="B5">
-        <v>0.7301137940865622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.73011379408656218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.6532073593891623</v>
       </c>
       <c r="B6">
-        <v>0.4204960189820489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.42049601898204891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.2728762824304716</v>
+        <v>0.27287628243047157</v>
       </c>
       <c r="B7">
-        <v>0.04144445263277563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>4.144445263277563E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7897690897182692</v>
       </c>
       <c r="B8">
-        <v>0.8701666543833101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.87016665438331009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.6688249018467726</v>
+        <v>0.66882490184677257</v>
       </c>
       <c r="B9">
-        <v>0.5828930152831689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.58289301528316895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.3855349348476833</v>
+        <v>0.38553493484768331</v>
       </c>
       <c r="B10">
-        <v>0.8334247001578999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.83342470015789993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.337105439944555</v>
       </c>
       <c r="B11">
-        <v>0.3254756507198384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.32547565071983842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.2269363874446692</v>
+        <v>0.22693638744466921</v>
       </c>
       <c r="B12">
-        <v>0.8750630504129412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.87506305041294119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.9691134511546919</v>
+        <v>0.96911345115469194</v>
       </c>
       <c r="B13">
-        <v>0.5468554156381091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.54685541563810913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.2891230903516312</v>
       </c>
       <c r="B14">
-        <v>0.4801285210233447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.48012852102334469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.7337142481821705</v>
+        <v>0.73371424818217046</v>
       </c>
       <c r="B15">
-        <v>0.6977433931077129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.69774339310771294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.4181556502692308</v>
+        <v>0.41815565026923079</v>
       </c>
       <c r="B16">
-        <v>0.02985679685110498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>2.985679685110498E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.4418643930775563</v>
+        <v>0.44186439307755632</v>
       </c>
       <c r="B17">
-        <v>0.4306659798457377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.43066597984573768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.4761294740067242</v>
+        <v>0.47612947400672417</v>
       </c>
       <c r="B18">
-        <v>0.6933727067308559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.69337270673085594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.493770074005082</v>
+        <v>0.49377007400508199</v>
       </c>
       <c r="B19">
-        <v>0.811226451650904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.81122645165090401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.8970875870165632</v>
+        <v>0.89708758701656321</v>
       </c>
       <c r="B20">
-        <v>0.0859155347260423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>8.5915534726042297E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.9563410656043202</v>
       </c>
       <c r="B21">
-        <v>0.9106768403801802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.91067684038018015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.9767505207710657</v>
+        <v>0.97675052077106572</v>
       </c>
       <c r="B22">
-        <v>0.202802680531721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.20280268053172101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.352597137616999</v>
+        <v>0.35259713761699901</v>
       </c>
       <c r="B23">
-        <v>0.5728760796190882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.57287607961908815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.5930917190440358</v>
+        <v>0.59309171904403579</v>
       </c>
       <c r="B24">
-        <v>0.001938280976028439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>1.938280976028439E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.9289069489394864</v>
+        <v>0.92890694893948644</v>
       </c>
       <c r="B25">
-        <v>0.4906050929041686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.49060509290416859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.9552604137418887</v>
+        <v>0.95526041374188875</v>
       </c>
       <c r="B26">
-        <v>0.159040438522902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.15904043852290201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.893078536466108</v>
+        <v>0.89307853646610802</v>
       </c>
       <c r="B27">
-        <v>0.1326802896778206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.13268028967782061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.0673560956260647</v>
+        <v>6.7356095626064705E-2</v>
       </c>
       <c r="B28">
-        <v>0.04989103718442489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>4.9891037184424891E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.8819427559749</v>
+        <v>0.88194275597490002</v>
       </c>
       <c r="B29">
-        <v>0.4305868660648819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.43058686606488189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.3182859002281726</v>
       </c>
       <c r="B30">
-        <v>0.1680165040810606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.16801650408106061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.1413737538413914</v>
+        <v>0.14137375384139139</v>
       </c>
       <c r="B31">
-        <v>0.007390091496022988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>7.390091496022988E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.7102989895489142</v>
+        <v>0.71029898954891424</v>
       </c>
       <c r="B32">
-        <v>0.3662814068751042</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.36628140687510419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.1352548277845544</v>
+        <v>0.13525482778455439</v>
       </c>
       <c r="B33">
-        <v>0.348897275422959</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.34889727542295901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.4135534536324118</v>
       </c>
       <c r="B34">
-        <v>0.7463597008977531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.74635970089775305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.5232032067446901</v>
+        <v>0.52320320674469012</v>
       </c>
       <c r="B35">
-        <v>0.8911241560973542</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.89112415609735418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.22793080619385</v>
+        <v>0.22793080619385001</v>
       </c>
       <c r="B36">
         <v>0.7246954264583062</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.07387161184215174</v>
+        <v>7.3871611842151741E-2</v>
       </c>
       <c r="B37">
-        <v>0.3663718745506535</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.36637187455065351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.2428090469588248</v>
       </c>
@@ -700,463 +755,463 @@
         <v>0.1133901983977208</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.8302825231001186</v>
+        <v>0.83028252310011863</v>
       </c>
       <c r="B39">
-        <v>0.2977818401735074</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.29778184017350739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.8568319783194257</v>
       </c>
       <c r="B40">
-        <v>0.979752282214958</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.97975228221495803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.2118960072918659</v>
+        <v>0.21189600729186589</v>
       </c>
       <c r="B41">
-        <v>0.712527721952439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.71252772195243896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.4368392385949013</v>
+        <v>0.43683923859490131</v>
       </c>
       <c r="B42">
         <v>0.964358986154917</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.06622341473602034</v>
+        <v>6.6223414736020336E-2</v>
       </c>
       <c r="B43">
-        <v>0.7961459528174654</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.79614595281746536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.9390399830726971</v>
+        <v>0.93903998307269709</v>
       </c>
       <c r="B44">
         <v>0.1432642586771109</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.3207381671150549</v>
+        <v>0.32073816711505487</v>
       </c>
       <c r="B45">
-        <v>0.1603816810663169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.16038168106631689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.4025396863372033</v>
+        <v>0.40253968633720327</v>
       </c>
       <c r="B46">
-        <v>0.8907549697848099</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.89075496978480995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.2048220332630116</v>
       </c>
       <c r="B47">
-        <v>0.6146442913503528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.61464429135035281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.1777467874465318</v>
       </c>
       <c r="B48">
-        <v>0.4614455890790364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.46144558907903638</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.1533828607561478</v>
+        <v>0.15338286075614779</v>
       </c>
       <c r="B49">
-        <v>0.7375247421499527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.73752474214995267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.3662865848885445</v>
+        <v>0.36628658488854449</v>
       </c>
       <c r="B50">
-        <v>0.03653768638929744</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>3.6537686389297441E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.6970190375900023</v>
+        <v>0.69701903759000228</v>
       </c>
       <c r="B51">
-        <v>0.6014030983649009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.60140309836490091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.3623331708995234</v>
+        <v>0.36233317089952338</v>
       </c>
       <c r="B52">
-        <v>0.2136372498389253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.21363724983892529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.7617346408543531</v>
+        <v>0.76173464085435305</v>
       </c>
       <c r="B53">
         <v>0.4649547514065614</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.818905074962144</v>
+        <v>0.81890507496214404</v>
       </c>
       <c r="B54">
-        <v>0.01208803322377383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1.2088033223773831E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.1875419136893569</v>
+        <v>0.18754191368935691</v>
       </c>
       <c r="B55">
-        <v>0.4948922923269131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.49489229232691312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.5311402056222381</v>
+        <v>0.53114020562223807</v>
       </c>
       <c r="B56">
-        <v>0.2983282450474281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.29832824504742811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.2492475154689942</v>
+        <v>0.24924751546899421</v>
       </c>
       <c r="B57">
-        <v>0.348276161592433</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.34827616159243302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.5550685746738195</v>
+        <v>0.55506857467381954</v>
       </c>
       <c r="B58">
-        <v>0.13968477277637</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.13968477277637001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.1687971559834497</v>
+        <v>0.16879715598344969</v>
       </c>
       <c r="B59">
-        <v>0.1827853361627244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.18278533616272441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.4525065502453817</v>
+        <v>0.45250655024538172</v>
       </c>
       <c r="B60">
-        <v>0.7254957974745975</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.72549579747459747</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.09972188454529685</v>
+        <v>9.9721884545296846E-2</v>
       </c>
       <c r="B61">
-        <v>0.265639084989251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.26563908498925098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.1901334158921594</v>
       </c>
       <c r="B62">
-        <v>0.4486084179107236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.44860841791072359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.2196882395654542</v>
+        <v>0.21968823956545419</v>
       </c>
       <c r="B63">
-        <v>0.4356177405331514</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.43561774053315139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.7605322130073763</v>
+        <v>0.76053221300737628</v>
       </c>
       <c r="B64">
-        <v>0.1379284577662934</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.13792845776629339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.2719870586923387</v>
+        <v>0.27198705869233869</v>
       </c>
       <c r="B65">
         <v>0.256154409901721</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.2409071520117178</v>
+        <v>0.24090715201171781</v>
       </c>
       <c r="B66">
-        <v>0.3915190215583135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.39151902155831347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.8599698724450526</v>
+        <v>0.85996987244505263</v>
       </c>
       <c r="B67">
-        <v>0.6974547421463304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.69745474214633041</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.4105677100041438</v>
+        <v>0.41056771000414383</v>
       </c>
       <c r="B68">
-        <v>0.7232884121922749</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.72328841219227491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.5747119771852903</v>
+        <v>0.57471197718529032</v>
       </c>
       <c r="B69">
-        <v>0.5892632766380914</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.58926327663809142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.4749630467260832</v>
+        <v>0.47496304672608319</v>
       </c>
       <c r="B70">
-        <v>0.5160179423379244</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.51601794233792442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.307967799441166</v>
+        <v>0.30796779944116598</v>
       </c>
       <c r="B71">
-        <v>0.3980072450293703</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.39800724502937029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.7707780438481483</v>
       </c>
       <c r="B72">
-        <v>0.1746170516396401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.17461705163964009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.5442584874260935</v>
+        <v>0.54425848742609351</v>
       </c>
       <c r="B73">
-        <v>0.8063569476717555</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.80635694767175548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.6381125430665994</v>
+        <v>0.63811254306659937</v>
       </c>
       <c r="B74">
-        <v>0.5094619510389923</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.50946195103899228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.1282072138812257</v>
+        <v>0.12820721388122569</v>
       </c>
       <c r="B75">
-        <v>0.8503868112943148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.85038681129431481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.2623990141783965</v>
+        <v>0.26239901417839651</v>
       </c>
       <c r="B76">
-        <v>0.8861128672047551</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.88611286720475513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.9380584474420981</v>
       </c>
       <c r="B77">
-        <v>0.4208635400592449</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.42086354005924492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.231954655646727</v>
+        <v>0.23195465564672699</v>
       </c>
       <c r="B78">
-        <v>0.2821682733281971</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.28216827332819711</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.09517366221639567</v>
+        <v>9.5173662216395671E-2</v>
       </c>
       <c r="B79">
-        <v>0.501242400464565</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.50124240046456503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.05856056600022153</v>
+        <v>5.8560566000221533E-2</v>
       </c>
       <c r="B80">
-        <v>0.4496791864154687</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.44967918641546872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.8347963002429241</v>
+        <v>0.83479630024292406</v>
       </c>
       <c r="B81">
-        <v>0.006365244797039593</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>6.3652447970395931E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.7236720942127235</v>
+        <v>0.72367209421272349</v>
       </c>
       <c r="B82">
-        <v>0.3878785197997656</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.38787851979976562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.6978870430026765</v>
+        <v>0.69788704300267645</v>
       </c>
       <c r="B83">
-        <v>0.3904539700922691</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.39045397009226912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.6124784209513161</v>
       </c>
       <c r="B84">
-        <v>0.5581667198913283</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.55816671989132827</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.3989812433890612</v>
+        <v>0.39898124338906121</v>
       </c>
       <c r="B85">
-        <v>0.4427478235941736</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.44274782359417358</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.8235065325443303</v>
+        <v>0.82350653254433026</v>
       </c>
       <c r="B86">
-        <v>0.7767380438428395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.77673804384283951</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.8868003975006802</v>
+        <v>0.88680039750068018</v>
       </c>
       <c r="B87">
-        <v>0.1880948489297936</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.18809484892979361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.8904743921001281</v>
+        <v>0.89047439210012813</v>
       </c>
       <c r="B88">
-        <v>0.1319377721483039</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.13193777214830391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.4282770618807421</v>
       </c>
       <c r="B89">
-        <v>0.8363644826117042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.83636448261170415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.1477111760123394</v>
+        <v>0.14771117601233941</v>
       </c>
       <c r="B90">
-        <v>0.319354432459066</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.31935443245906597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.9776962930733739</v>
+        <v>0.97769629307337391</v>
       </c>
       <c r="B91">
         <v>0.1226850939827021</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.8661496941075233</v>
+        <v>0.86614969410752329</v>
       </c>
       <c r="B92">
-        <v>0.6080928079337807</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.60809280793378073</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.08258833215883277</v>
+        <v>8.2588332158832767E-2</v>
       </c>
       <c r="B93">
-        <v>0.6265951148241081</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.62659511482410812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.4092343926174136</v>
+        <v>0.40923439261741362</v>
       </c>
       <c r="B94">
         <v>0.187048674835957</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.435038446522909</v>
+        <v>0.43503844652290902</v>
       </c>
       <c r="B95">
-        <v>0.8651832119099512</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.86518321190995118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.7023007350894116</v>
       </c>
@@ -1164,41 +1219,41 @@
         <v>0.1543042266100251</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.4482250157091734</v>
+        <v>0.44822501570917339</v>
       </c>
       <c r="B97">
-        <v>0.3763174697262083</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.37631746972620828</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.4516547732625616</v>
+        <v>0.45165477326256159</v>
       </c>
       <c r="B98">
-        <v>0.4688357505797167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.46883575057971671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.316772049279411</v>
+        <v>0.31677204927941099</v>
       </c>
       <c r="B99">
-        <v>0.9492548233310844</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.94925482333108435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.5548579957668064</v>
+        <v>0.55485799576680639</v>
       </c>
       <c r="B100">
-        <v>0.2996489753823958</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.29964897538239582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.1829367268415922</v>
+        <v>0.18293672684159221</v>
       </c>
       <c r="B101">
         <v>0.2308067034582563</v>
